--- a/stringtable.xlsx
+++ b/stringtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Games\Arma 3\Arma 3 Mods\3den-Enhanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4024C5A5-A7D6-4D38-B38D-CFCD669CF6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A53BD9-2C05-4777-9696-0AABD8FCD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00A37BA8-489D-4829-AFD4-63F1E3304F39}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{071F1B33-24CB-4C57-A0CE-BE1444D13AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
@@ -19640,7 +19640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DF6A0-BF34-4AE0-BB26-AB83732A9430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D217CCB-8494-4482-80CF-5D203A5DCBA7}">
   <dimension ref="A1:K888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
